--- a/story/Main Story and Others 主线剧情等/guide 导航文字/shop/0_main_and_extraqc.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/shop/0_main_and_extraqc.xlsx
@@ -92,7 +92,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] &lt;@tu.kw&gt;采购凭证&lt;/&gt;是从物资筹备-粉碎防御作战任务中得到的奖励。
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] &lt;@tu.kw&gt;采购凭证&lt;/&gt;是从资源收集-粉碎防御作战任务中得到的奖励。
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/guide 导航文字/shop/0_main_and_extraqc.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/shop/0_main_and_extraqc.xlsx
@@ -167,7 +167,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] &lt;@tu.kw&gt;購買資格証&lt;/&gt;は物資調達作戦の防御突破作戦任務でゲットできるよ！
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] &lt;@tu.kw&gt;購買資格証&lt;/&gt;は、「物資調達」の「防御突破」作戦で獲得できるものだよ。
 </t>
   </si>
   <si>
@@ -186,7 +186,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]   Hmm… Well, don’t worry about it. This is a bit unexpected though.
+    <t xml:space="preserve">[name="???"]   Hmm... Well, don't worry about it. This is a bit unexpected though.
 </t>
   </si>
   <si>
@@ -194,11 +194,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]   Woah, excellent job… I knew you could do it. This was no easy task.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]   I feel that after we’ve been working together for a while, we’ll find that we have a lot in common.
+    <t xml:space="preserve">[name="???"]   Woah, excellent job... I knew you could do it. This was no easy task.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]   I feel that after we've been working together for a while, we'll find that we have a lot in common.
 </t>
   </si>
   <si>
@@ -218,7 +218,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] All of these splendid goods have been hand-picked by yours truly. They’re a great value!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] All of these splendid goods have been hand-picked by yours truly. They're a great value!
 </t>
   </si>
   <si>
@@ -242,7 +242,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] The &lt;@tu.kw&gt;Purchase Certificate&lt;/&gt; is something you can earn from Skirmishes.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] The &lt;@tu.kw&gt;Purchase Certificate&lt;/&gt; is something you can earn from Supplies-Tough Siege.
 </t>
   </si>
   <si>
@@ -317,7 +317,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] &lt;@tu.kw&gt;구매증명서&lt;/&gt;는 물자 비축 작전 중 자원 보장 임무에서 얻을 수 있어.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] &lt;@tu.kw&gt;구매증명서&lt;/&gt;는 물자 비축 작전 중 방어 분쇄 임무에서 얻을 수 있어.
 </t>
   </si>
   <si>
